--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -179,16 +179,85 @@
 Use of STDIN for Input                   </t>
     </r>
   </si>
+  <si>
+    <t>1.for_loop.c           2.max_of_four.c  3.sum_of_digits_in_fivedigit_num.c  4.update_value_using_pointers.c</t>
+  </si>
+  <si>
+    <t>1.Exceptions.py 
+2.LeapYear.py 3.ListComprehensions.py   4.Loop_int_Pattern_print.py  5.PrintFunction.py</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns
+ 2.Gone though below mentioned  perl concetps in geeksforgeeks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Control Flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Decision Making
+Loops
+Perl given-when Statement
+Perl goto operator
+next operator
+redo operator
+last in loop                                                                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Datatypes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Data Types
+Arrays and Lists:
+Arrays
+Array Slices
+Getting the Number of Elements of an Array
+Reverse an array</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -208,17 +277,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,52 +346,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -307,8 +376,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,24 +405,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,187 +429,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,24 +620,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,6 +638,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -598,6 +664,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,11 +694,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,32 +710,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,135 +744,138 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1158,14 +1230,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="9.28571428571429"/>
     <col min="2" max="2" width="29.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="19.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="56.4285714285714" customWidth="1"/>
@@ -1192,11 +1265,25 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="285" spans="1:4">
+      <c r="A3" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1.Written </t>
     </r>
     <r>
@@ -188,6 +195,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns
  2.Gone though below mentioned  perl concetps in geeksforgeeks
 </t>
@@ -241,11 +255,135 @@
       </rPr>
       <t xml:space="preserve">
 Data Types
-Arrays and Lists:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrays and Lists:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Arrays
 Array Slices
 Getting the Number of Elements of an Array
 Reverse an array</t>
+    </r>
+  </si>
+  <si>
+    <t>1.1d-arrays-in-c.c  
+2.conditional-statements-in-c.c
+ 3.reverse-array-c.c 
+4.students-marks-sum.c</t>
+  </si>
+  <si>
+    <t>whats-your-name.py</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns
+ 2.Gone though below mentioned  perl concetps  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Arrays and Lists:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   
+1.Sorting of Arrays
+2.Useful Array functions
+3.Arrays (push, pop, shift, unshift)
+4.Implementing a Stack
+5.List and its Types
+6.List Functions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hash:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Introduction to Hash
+2.Working of a Hash
+3.Hash Operations
+4.Sorting a Hash
+5.Hash in Scalar and List Context
+6.Useful Hash functions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scalars:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Scalars
+2.Comparing Scalars
+3.scalar keyword</t>
     </r>
   </si>
 </sst>
@@ -255,9 +393,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -276,6 +414,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -284,46 +430,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,30 +521,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,181 +573,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,6 +758,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -638,17 +785,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,20 +833,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,7 +861,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,64 +882,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -810,65 +948,65 @@
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -879,9 +1017,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1230,13 +1365,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.28571428571429"/>
     <col min="2" max="2" width="29.5714285714286" customWidth="1"/>
@@ -1276,14 +1411,28 @@
       <c r="A3" s="2">
         <v>44317</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="315" spans="1:4">
+      <c r="A4" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -294,13 +294,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns
  2.Gone though below mentioned  perl concetps  </t>
     </r>
@@ -386,16 +379,63 @@
 3.scalar keyword</t>
     </r>
   </si>
+  <si>
+    <t>1.printing-tokens.c</t>
+  </si>
+  <si>
+    <t>1.finding-the-percentage.py 
+2.python-mutations.py 
+ 3.python-string-split-and-join.py 4. swap-case.py</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns
+ 2.Attended Mock interview round-1 on C,OS and git
+ 3.Gone though below mentioned  perl concetps  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Quoted, Interpolated and Escaped Strings
+2.Multi-line Strings | Here Document
+3.Sorting mixed Strings in Perl
+4.String Operators
+5.Useful String Operators
+6.String functions (length, lc, uc, index, rindex)
+7.Useful String functions
+8.Automatic String to Number Conversion or Casting
+9.Count the frequency of words in text
+10.Removing leading and trailing white spaces (trim)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -414,6 +454,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -423,12 +477,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -436,8 +498,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,32 +514,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,14 +545,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -521,6 +561,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -528,31 +590,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,187 +607,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +810,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -781,30 +836,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,6 +864,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -847,29 +898,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,134 +919,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1017,6 +1057,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1365,17 +1408,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.28571428571429"/>
     <col min="2" max="2" width="29.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="19.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="56.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1425,7 +1468,7 @@
       <c r="A4" s="2">
         <v>44348</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -1433,6 +1476,20 @@
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="225" spans="1:4">
+      <c r="A5" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -195,13 +195,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns
  2.Gone though below mentioned  perl concetps in geeksforgeeks
 </t>
@@ -294,6 +287,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns
  2.Gone though below mentioned  perl concetps  </t>
     </r>
@@ -426,6 +426,47 @@
 10.Removing leading and trailing white spaces (trim)</t>
     </r>
   </si>
+  <si>
+    <t>too-high-boxes.c</t>
+  </si>
+  <si>
+    <t>1.python-tuples.py 
+2.text-wrap.py 
+3.text-alignment.py</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Written C and python programs mentioned in B and C columns
+ 2.Gone though below mentioned  perl concetps in geeksforgeeks</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Object Oriented Programming in Perl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Introduction to OOPs
+2.Classes
+3.Objects
+4.Methods
+5.Constructors and Destructors</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -433,9 +474,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -454,8 +495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,6 +510,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -476,8 +540,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,24 +556,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,29 +579,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -561,8 +595,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -570,29 +619,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,25 +648,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,13 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,133 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,11 +842,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,21 +868,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,20 +898,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,151 +919,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1408,13 +1449,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.28571428571429"/>
     <col min="2" max="2" width="29.5714285714286" customWidth="1"/>
@@ -1485,11 +1526,25 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="150" spans="1:4">
+      <c r="A6" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -195,6 +195,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns
  2.Gone though below mentioned  perl concetps in geeksforgeeks
 </t>
@@ -389,6 +396,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns
  2.Attended Mock interview round-1 on C,OS and git
  3.Gone though below mentioned  perl concetps  
@@ -436,6 +450,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.Written C and python programs mentioned in B and C columns
  2.Gone though below mentioned  perl concetps in geeksforgeeks</t>
     </r>
@@ -467,15 +488,61 @@
 5.Constructors and Destructors</t>
     </r>
   </si>
+  <si>
+    <t>variadic-functions.c</t>
+  </si>
+  <si>
+    <t>1.py-introduction-to-sets.py</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns 
+2.Prepared ppt for perl
+ 3.Gone though below mentioned  perl concetps
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object Oriented Programming in Perl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ 6.Method Overriding
+7.Inheritance
+8.Polymorphism
+9.Encapsulation</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -510,47 +577,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,6 +600,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -596,12 +656,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -610,6 +684,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,21 +700,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,181 +721,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,6 +924,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -868,15 +944,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,6 +989,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -930,173 +1006,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1449,15 +1510,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.28571428571429"/>
+    <col min="1" max="1" width="10.2857142857143"/>
     <col min="2" max="2" width="29.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="56.4285714285714" customWidth="1"/>
@@ -1540,11 +1601,25 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="135" spans="1:4">
+      <c r="A7" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -496,13 +496,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns 
 2.Prepared ppt for perl
  3.Gone though below mentioned  perl concetps
@@ -532,6 +525,46 @@
 7.Inheritance
 8.Polymorphism
 9.Encapsulation</t>
+    </r>
+  </si>
+  <si>
+    <t>sum-numbers.c</t>
+  </si>
+  <si>
+    <t>1.python-power-mod-power.py 
+2.python-mod-divmod.py</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns 
+2.Updated Resume 
+3.Updated Learn &amp; Grow Project image size in HTML code and checked it in Local(Able to identify  image Size issue) 
+4.Writting Gitcommands Cheat Sheet
+5.Gone though below mentioned  perl concetps
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subroutines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Subroutines or Functions | Set – 1, Set – 2(GeeksForgeeks)
+Function Signature in Perl</t>
     </r>
   </si>
 </sst>
@@ -540,10 +573,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -562,31 +595,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,9 +664,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,40 +673,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,12 +688,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -669,38 +731,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,187 +748,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,6 +939,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -926,48 +1016,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,30 +1039,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,137 +1060,143 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1510,13 +1549,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.2857142857143"/>
     <col min="2" max="2" width="29.5714285714286" customWidth="1"/>
@@ -1622,6 +1661,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" ht="150" spans="1:4">
+      <c r="A8" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -496,6 +496,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns 
 2.Prepared ppt for perl
  3.Gone though below mentioned  perl concetps
@@ -536,6 +543,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns 
 2.Updated Resume 
 3.Updated Learn &amp; Grow Project image size in HTML code and checked it in Local(Able to identify  image Size issue) 
@@ -566,6 +580,9 @@
 Subroutines or Functions | Set – 1, Set – 2(GeeksForgeeks)
 Function Signature in Perl</t>
     </r>
+  </si>
+  <si>
+    <t>hi</t>
   </si>
 </sst>
 </file>
@@ -574,9 +591,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -595,22 +612,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -633,49 +711,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,52 +728,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,187 +765,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,16 +960,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,35 +998,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,6 +1020,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,10 +1047,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,143 +1077,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1549,13 +1560,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.2857142857143"/>
     <col min="2" max="2" width="29.5714285714286" customWidth="1"/>
@@ -1661,18 +1672,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="150" spans="1:4">
+    <row r="8" ht="150" spans="1:5">
       <c r="A8" s="2">
         <v>44531</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -543,13 +543,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns 
 2.Updated Resume 
 3.Updated Learn &amp; Grow Project image size in HTML code and checked it in Local(Able to identify  image Size issue) 
@@ -582,7 +575,74 @@
     </r>
   </si>
   <si>
-    <t>hi</t>
+    <t>13/1/2021</t>
+  </si>
+  <si>
+    <t>Prepared git cheat sheet(Half day leave)</t>
+  </si>
+  <si>
+    <t>15/1/2021</t>
+  </si>
+  <si>
+    <t>On Leave</t>
+  </si>
+  <si>
+    <t>18/1/2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gone though below mentioned  perl concetps
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Subroutines Cont  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Mutable and Immutable parameters
+Multiple Subroutines
+Use of return() Function
+References
+Pass By Reference
+Recursion in Perl
+Regular Expressions
+Regular Expressions
+Operators in Regular Expression
+Regex Character Classes
+Special Character Classes in Regular Expressions
+Quantifiers in Regular Expression
+Backtracking in Regular Expression
+‘e’ modifier in Regex
+‘ee’ Modifier in Regex
+pos() function in Regex
+Regex Cheat Sheet
+Searching in a File using regex
+File Handling
+File Handling Introduction
+Opening and Reading a File
+Writing to a File
+Appending to a File
+Reading a CSV File
+File Test Operators
+File Locking
+Use of Slurp Module
+Useful File-handling functions</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -590,10 +650,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -612,6 +672,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -620,6 +718,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -628,22 +727,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,14 +756,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -674,6 +765,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -682,32 +795,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -719,38 +809,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,187 +825,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,6 +1016,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -974,25 +1052,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1013,22 +1078,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,15 +1111,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,138 +1137,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1560,13 +1623,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.2857142857143"/>
     <col min="2" max="2" width="29.5714285714286" customWidth="1"/>
@@ -1672,7 +1735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="150" spans="1:5">
+    <row r="8" ht="150" spans="1:4">
       <c r="A8" s="2">
         <v>44531</v>
       </c>
@@ -1685,11 +1748,35 @@
       <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="409.5" spans="1:4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:D10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15810" windowHeight="7815"/>
+    <workbookView windowWidth="15915" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -543,6 +543,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns 
 2.Updated Resume 
 3.Updated Learn &amp; Grow Project image size in HTML code and checked it in Local(Able to identify  image Size issue) 
@@ -591,6 +598,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Gone though below mentioned  perl concetps
  </t>
     </r>
@@ -644,16 +658,42 @@
 Useful File-handling functions</t>
     </r>
   </si>
+  <si>
+    <t>19/1/2021</t>
+  </si>
+  <si>
+    <t>Gone though random topics in c for an hour</t>
+  </si>
+  <si>
+    <t>Gone though random topics in python for an hour</t>
+  </si>
+  <si>
+    <t>Gone though perl ppt for the presentation and tried to update git cheat sheet.finding already available commads in git sheet prepared checking for adavaced options</t>
+  </si>
+  <si>
+    <t>20/1/2021</t>
+  </si>
+  <si>
+    <t>recursion-in.c</t>
+  </si>
+  <si>
+    <t>python-lists.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns 
+2.Started Preparing ppt on oops in perl 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -672,6 +712,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -680,7 +744,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,25 +805,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,96 +855,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -825,13 +865,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,79 +991,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +1027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,60 +1046,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,17 +1062,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,12 +1083,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1074,21 +1118,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,15 +1140,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,130 +1177,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1274,7 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1623,10 +1663,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1769,8 +1809,36 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:4">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="60" spans="1:4">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -682,7 +682,22 @@
   <si>
     <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns 
 2.Started Preparing ppt on oops in perl 
+3.Attended  Testing training session
 </t>
+  </si>
+  <si>
+    <t>21/1/2021</t>
+  </si>
+  <si>
+    <t>dynamic-array-in.c</t>
+  </si>
+  <si>
+    <t>np-inner-and-outer.py</t>
+  </si>
+  <si>
+    <t>1.Written C and python programs mentioned in B and C columns 
+2.Preparing ppt  Regex in perl 
+3.Attended  Testing training session</t>
   </si>
 </sst>
 </file>
@@ -691,9 +706,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -712,6 +727,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -720,6 +801,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -730,97 +857,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,28 +870,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -865,187 +880,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,8 +1077,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,6 +1098,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1094,15 +1118,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,6 +1137,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1136,30 +1171,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,130 +1192,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1663,10 +1678,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1817,17 +1832,17 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="60" spans="1:4">
+    <row r="13" ht="75" spans="1:4">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1837,8 +1852,22 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="60" spans="1:4">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -699,6 +699,25 @@
 2.Preparing ppt  Regex in perl 
 3.Attended  Testing training session</t>
   </si>
+  <si>
+    <t>22/1/2021</t>
+  </si>
+  <si>
+    <t>staircase.c  
+ birthday-cake-candles.c  
+diagonal-difference.c 
+simple-array-sum.c 
+a-very-big-sum.c</t>
+  </si>
+  <si>
+    <t>itertools-permutations.py 
+collections-counter.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Written C and python programs mentioned in B and C columns 
+2.Preparing ppt  Regex in perl 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -706,8 +725,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -734,8 +753,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,77 +876,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,45 +889,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -880,13 +899,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,73 +1055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,91 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,33 +1095,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,6 +1130,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,43 +1167,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,130 +1211,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1678,10 +1697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1866,8 +1885,22 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="75" spans="1:4">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -718,15 +718,29 @@
 2.Preparing ppt  Regex in perl 
 </t>
   </si>
+  <si>
+    <t>23/1/2021</t>
+  </si>
+  <si>
+    <t>apple_and_orange.c 
+Gone Through below c concepts
+ 1. Compilation steps.
+2. Linking and loading (elf).
+3. Memory layout (RAM).</t>
+  </si>
+  <si>
+    <t>1.Written C  mentioned in B Column 
+2.Attended session on black box and white box testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -753,6 +767,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,17 +791,49 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,61 +845,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -855,7 +861,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,19 +882,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -899,18 +913,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -923,61 +1075,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,97 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,17 +1118,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,15 +1138,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,6 +1181,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1193,148 +1207,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1697,10 +1711,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1893,14 +1907,25 @@
       <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="16" ht="75" spans="1:4">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -732,16 +732,26 @@
     <t>1.Written C  mentioned in B Column 
 2.Attended session on black box and white box testing</t>
   </si>
+  <si>
+    <t>15/2/2021</t>
+  </si>
+  <si>
+    <t>1.access_array_of_pointer_with_triple_pointers.c  2.double_pointers_and_array_of_pointers.c  3.sizeof_union_and_struct.c</t>
+  </si>
+  <si>
+    <t>1.Practised mock interview questions and written one c program mentioned in b column
+2.Learning Communication improving technique(recording own voice and checking the flaws and trying to recuce those)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -760,8 +770,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,6 +807,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,119 +907,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -913,37 +923,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,19 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,121 +1097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,22 +1117,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,6 +1143,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,21 +1181,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1204,10 +1203,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,134 +1235,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1360,9 +1370,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1711,10 +1718,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C22" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1921,11 +1928,22 @@
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="75" spans="1:4">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -742,16 +742,27 @@
     <t>1.Practised mock interview questions and written one c program mentioned in b column
 2.Learning Communication improving technique(recording own voice and checking the flaws and trying to recuce those)</t>
   </si>
+  <si>
+    <t>16/2/2021</t>
+  </si>
+  <si>
+    <t>1.printing_binary_equivalent_using_bitwise.c 2.range_of_short_int.c  3.enums_are_names_to_interger_constant.c</t>
+  </si>
+  <si>
+    <t>1.Practiced mock interview questions mentioned  in b column
+2.Gone though gerrit and jenkins tutorials 
+3.Attended c mock interview discussion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -770,6 +781,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -777,142 +924,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -923,25 +934,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,157 +1090,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,17 +1128,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,15 +1161,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1167,30 +1172,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,155 +1195,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1370,6 +1381,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1718,10 +1732,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C22" sqref="C21:C22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1946,6 +1960,17 @@
         <v>52</v>
       </c>
     </row>
+    <row r="19" ht="75" spans="1:4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B10:D10"/>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -753,16 +753,35 @@
 2.Gone though gerrit and jenkins tutorials 
 3.Attended c mock interview discussion</t>
   </si>
+  <si>
+    <t>17/2/2021</t>
+  </si>
+  <si>
+    <t>1.wild_dangling_pointer_and_seg_fault.c  2.sort_array_with_fn_pointer.c 3.size_of_single_pointer.c 4.set_2bits_at_specified_pos.c</t>
+  </si>
+  <si>
+    <t>Gone though python below mentioned  oops concepts
+ Python3 Intermediate Level Topics
+Class, Object and Members
+Data Hiding and Object Printing
+Inheritance, examples of object, issubclass and super
+Polymorphism in Python</t>
+  </si>
+  <si>
+    <t>1.Practiced mock interview questions mentioned  in b column
+2.Gone though python concepts mentioned in c column
+3.Attended c mock interview discussion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -781,8 +800,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,45 +847,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,6 +892,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -887,23 +908,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,13 +923,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -934,12 +953,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -947,174 +1134,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,10 +1156,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1161,6 +1197,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1172,41 +1217,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,18 +1235,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,130 +1265,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1732,10 +1751,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1964,11 +1983,25 @@
       <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="20" ht="135" spans="1:4">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -772,6 +772,27 @@
 2.Gone though python concepts mentioned in c column
 3.Attended c mock interview discussion</t>
   </si>
+  <si>
+    <t>18/2/2021</t>
+  </si>
+  <si>
+    <t>1,copy_from_one_file_to_another.c 
+ 2.open_create_write_and_save.c  
+3.read_and_display_data_from_file.c</t>
+  </si>
+  <si>
+    <t>Class and static variable in python
+Class method and static method in python
+Changing class members
+Constructors in Python
+Destructors in Python
+First class function
+Metaprogramming with metaclasses</t>
+  </si>
+  <si>
+    <t>1.Practiced mock interview questions mentioned  in b column
+2.Gone though python concepts mentioned in c column</t>
+  </si>
 </sst>
 </file>
 
@@ -779,8 +800,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -800,14 +821,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -815,24 +828,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,15 +859,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,7 +913,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -923,8 +943,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,181 +980,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,15 +1165,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1171,17 +1183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1193,6 +1194,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,6 +1231,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1238,16 +1257,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,31 +1286,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1298,97 +1319,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1751,10 +1772,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1997,11 +2018,25 @@
       <c r="B20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="135" spans="1:4">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -793,16 +793,25 @@
     <t>1.Practiced mock interview questions mentioned  in b column
 2.Gone though python concepts mentioned in c column</t>
   </si>
+  <si>
+    <t>19/2/2021</t>
+  </si>
+  <si>
+    <t>Half day leave</t>
+  </si>
+  <si>
+    <t>1.Gone though random interview questions on files in c and gone though predefined file funtions in c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -821,8 +830,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,12 +854,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -850,26 +868,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -913,10 +923,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,37 +968,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,31 +983,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,151 +1133,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,21 +1174,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1200,9 +1194,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,175 +1252,173 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1424,7 +1433,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1772,10 +1781,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2029,19 +2038,32 @@
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tulasi/Tulasi_B&I_StatusSheet.xlsx
+++ b/Tulasi/Tulasi_B&I_StatusSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -802,16 +802,33 @@
   <si>
     <t>1.Gone though random interview questions on files in c and gone though predefined file funtions in c</t>
   </si>
+  <si>
+    <t>22/2/2021</t>
+  </si>
+  <si>
+    <t>1.Gone though enums in c</t>
+  </si>
+  <si>
+    <t>1. What is Python? What are the 2.benefits of using Python?
+3.How Python is interpreted?
+4.How memory is managed in Python?</t>
+  </si>
+  <si>
+    <t>1.Attended Session on perl given by pavani mounika 
+2.Attended session on strcutures,unions and enums in c given by pavani G 
+3.Gone though Perl ppt and Practiced presentation on Perl 4.Gone though python concepts mentioned in c column 
+5.Gone though enums in c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -839,15 +856,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,9 +876,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,22 +893,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,7 +947,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,6 +955,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,8 +983,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,25 +1000,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,13 +1156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,139 +1174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,32 +1204,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1251,6 +1242,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1266,26 +1266,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1298,131 +1315,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1434,6 +1451,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1781,10 +1801,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2048,7 +2068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" ht="30" spans="1:4">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2056,8 +2076,22 @@
         <v>65</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="23" ht="90" spans="1:4">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
